--- a/Model/in progress/v02-10/Components/Detector/NBO_MicroscopyMetadataSpecifications_DETECTOR_v02-10.xlsx
+++ b/Model/in progress/v02-10/Components/Detector/NBO_MicroscopyMetadataSpecifications_DETECTOR_v02-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/NBOMicroscopyMetadataSpecs/Model/in progress/v02-10/Components/Detector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A6DB7-D06D-B24E-AD85-8E5C00D38BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AAB95-48AF-9748-AEE8-19C051B5C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1260" windowWidth="24760" windowHeight="16000" activeTab="1" xr2:uid="{FF8EC58E-AC57-9D4D-AF0B-ECFDD46E717E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16800" xr2:uid="{FF8EC58E-AC57-9D4D-AF0B-ECFDD46E717E}"/>
   </bookViews>
   <sheets>
     <sheet name="NBO-CB_Hardware_Detector_v2.10" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="294">
   <si>
     <t>Tier</t>
   </si>
@@ -1013,6 +1013,12 @@
   </si>
   <si>
     <t>~</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change </t>
   </si>
 </sst>
 </file>
@@ -3147,9 +3153,9 @@
   </sheetPr>
   <dimension ref="A1:AS564"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3222,6 +3228,9 @@
       <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="W1" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="2" spans="1:45" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
@@ -3647,7 +3656,9 @@
       <c r="T10" s="65"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="W10" s="16" t="s">
+        <v>293</v>
+      </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -16657,8 +16668,8 @@
   </sheetPr>
   <dimension ref="A1:U854"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Model/in progress/v02-10/Components/Detector/NBO_MicroscopyMetadataSpecifications_DETECTOR_v02-10.xlsx
+++ b/Model/in progress/v02-10/Components/Detector/NBO_MicroscopyMetadataSpecifications_DETECTOR_v02-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/NBOMicroscopyMetadataSpecs/Model/in progress/v02-10/Components/Detector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7C4F0-5F24-A446-A492-8E2B00236236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66BB9FF-D242-9749-B6ED-7FFD5BAC95CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16800" xr2:uid="{FF8EC58E-AC57-9D4D-AF0B-ECFDD46E717E}"/>
+    <workbookView xWindow="1840" yWindow="900" windowWidth="26200" windowHeight="16320" activeTab="1" xr2:uid="{FF8EC58E-AC57-9D4D-AF0B-ECFDD46E717E}"/>
   </bookViews>
   <sheets>
     <sheet name="NBO-CB_Hardware_Detector_v2.10" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="296">
   <si>
     <t>Tier</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>ΜanufactuerSpecs</t>
-  </si>
-  <si>
-    <t>Additional ManufactuerSpecs attributes and Sub-elements are listed at the beginning of this document.</t>
   </si>
   <si>
     <t>ID</t>
@@ -1030,6 +1027,15 @@
   </si>
   <si>
     <t>Name, Lastname, email</t>
+  </si>
+  <si>
+    <t>Additional ManufactuerSpecs attributes and Sub-elements are listed in the main NBO_MicroscopyMetadataSpecifications_ALL_v02-10.xlsx document (https://github.com/WU-BIMAC/NBOMicroscopyMetadataSpecs/blob/master/Model/in%20progress/v02-10/NBO_MicroscopyMetadataSpecifications_ALL_v02-10.xlsx)</t>
+  </si>
+  <si>
+    <t>Settings Extension base</t>
+  </si>
+  <si>
+    <t>Settings-extensin base Sub-elements are listed in the main NBO_MicroscopyMetadataSpecifications_ALL_v02-10.xlsx document (https://github.com/WU-BIMAC/NBOMicroscopyMetadataSpecs/blob/master/Model/in%20progress/v02-10/NBO_MicroscopyMetadataSpecifications_ALL_v02-10.xlsx)</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1045,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1282,14 +1288,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="63">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,6 +1662,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF83ADE5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1698,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2465,6 +2477,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2477,10 +2493,18 @@
     <xf numFmtId="0" fontId="15" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2488,6 +2512,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC0C0C0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2705,14 +2734,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2318544</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>150426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2565942</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>213772</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>213771</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -3196,9 +3225,9 @@
   </sheetPr>
   <dimension ref="A1:AS564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3218,7 +3247,7 @@
     <col min="18" max="20" width="12.33203125" style="175" customWidth="1"/>
     <col min="21" max="21" width="9.5" style="16" customWidth="1"/>
     <col min="22" max="22" width="3.1640625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="24.1640625" style="267" customWidth="1"/>
+    <col min="23" max="23" width="24.1640625" style="263" customWidth="1"/>
     <col min="24" max="30" width="10.83203125" style="16" customWidth="1"/>
     <col min="31" max="31" width="4" style="16" customWidth="1"/>
     <col min="32" max="34" width="10.83203125" style="16" customWidth="1"/>
@@ -3271,8 +3300,8 @@
       <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="266" t="s">
-        <v>293</v>
+      <c r="W1" s="262" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -3338,7 +3367,7 @@
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="267"/>
+      <c r="W3" s="263"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
@@ -3467,7 +3496,7 @@
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="267"/>
+      <c r="W6" s="263"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -3528,7 +3557,7 @@
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
-      <c r="W7" s="267"/>
+      <c r="W7" s="263"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
@@ -3589,7 +3618,7 @@
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="267"/>
+      <c r="W8" s="263"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
@@ -3646,7 +3675,7 @@
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="267"/>
+      <c r="W9" s="263"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -3670,7 +3699,7 @@
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
     </row>
-    <row r="10" spans="1:45" s="56" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" s="56" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57">
         <v>3</v>
       </c>
@@ -3686,7 +3715,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
       <c r="K10" s="61" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="L10" s="62"/>
       <c r="M10" s="63"/>
@@ -3699,8 +3728,8 @@
       <c r="T10" s="65"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="267" t="s">
-        <v>292</v>
+      <c r="W10" s="263" t="s">
+        <v>291</v>
       </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -3734,17 +3763,17 @@
       <c r="D11" s="32"/>
       <c r="E11" s="47"/>
       <c r="F11" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="67"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
       <c r="K11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="68" t="s">
         <v>39</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>40</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
@@ -3760,7 +3789,7 @@
         <v>27</v>
       </c>
       <c r="T11" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3772,22 +3801,22 @@
       <c r="D12" s="31"/>
       <c r="E12" s="47"/>
       <c r="F12" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="73" t="s">
         <v>43</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>44</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
       <c r="O12" s="74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" s="75"/>
       <c r="Q12" s="76"/>
@@ -3796,7 +3825,7 @@
       </c>
       <c r="S12" s="78"/>
       <c r="T12" s="77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3808,17 +3837,17 @@
       <c r="D13" s="32"/>
       <c r="E13" s="47"/>
       <c r="F13" s="79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="79"/>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
       <c r="K13" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="82" t="s">
         <v>47</v>
-      </c>
-      <c r="L13" s="82" t="s">
-        <v>48</v>
       </c>
       <c r="M13" s="81"/>
       <c r="N13" s="81"/>
@@ -3838,23 +3867,23 @@
       <c r="D14" s="32"/>
       <c r="E14" s="47"/>
       <c r="F14" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="88"/>
       <c r="I14" s="88"/>
       <c r="J14" s="88"/>
       <c r="K14" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="90" t="s">
+      <c r="M14" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="89" t="s">
+      <c r="N14" s="89" t="s">
         <v>52</v>
-      </c>
-      <c r="N14" s="89" t="s">
-        <v>53</v>
       </c>
       <c r="O14" s="69" t="s">
         <v>27</v>
@@ -3874,23 +3903,23 @@
       <c r="D15" s="32"/>
       <c r="E15" s="47"/>
       <c r="F15" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
       <c r="K15" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="89" t="s">
+      <c r="N15" s="89" t="s">
         <v>56</v>
-      </c>
-      <c r="N15" s="89" t="s">
-        <v>57</v>
       </c>
       <c r="O15" s="69" t="s">
         <v>27</v>
@@ -3910,17 +3939,17 @@
       <c r="D16" s="32"/>
       <c r="E16" s="47"/>
       <c r="F16" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
       <c r="K16" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="90" t="s">
         <v>59</v>
-      </c>
-      <c r="L16" s="90" t="s">
-        <v>60</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="89"/>
@@ -3942,17 +3971,17 @@
       <c r="D17" s="32"/>
       <c r="E17" s="47"/>
       <c r="F17" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="80"/>
       <c r="H17" s="88"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
       <c r="K17" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="89"/>
       <c r="N17" s="89"/>
@@ -3974,17 +4003,17 @@
       <c r="D18" s="32"/>
       <c r="E18" s="47"/>
       <c r="F18" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
       <c r="J18" s="88"/>
       <c r="K18" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="90" t="s">
         <v>64</v>
-      </c>
-      <c r="L18" s="90" t="s">
-        <v>65</v>
       </c>
       <c r="M18" s="89"/>
       <c r="N18" s="89"/>
@@ -4006,23 +4035,23 @@
       <c r="D19" s="32"/>
       <c r="E19" s="47"/>
       <c r="F19" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="80"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
       <c r="K19" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="89" t="s">
-        <v>68</v>
-      </c>
       <c r="N19" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O19" s="69" t="s">
         <v>27</v>
@@ -4042,17 +4071,17 @@
       <c r="D20" s="32"/>
       <c r="E20" s="47"/>
       <c r="F20" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="80"/>
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
       <c r="K20" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="90" t="s">
         <v>70</v>
-      </c>
-      <c r="L20" s="90" t="s">
-        <v>71</v>
       </c>
       <c r="M20" s="89"/>
       <c r="N20" s="89"/>
@@ -4074,17 +4103,17 @@
       <c r="D21" s="32"/>
       <c r="E21" s="47"/>
       <c r="F21" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
       <c r="J21" s="79"/>
       <c r="K21" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="82" t="s">
         <v>73</v>
-      </c>
-      <c r="L21" s="82" t="s">
-        <v>74</v>
       </c>
       <c r="M21" s="81"/>
       <c r="N21" s="81"/>
@@ -4104,17 +4133,17 @@
       <c r="D22" s="32"/>
       <c r="E22" s="47"/>
       <c r="F22" s="79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="80"/>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
       <c r="K22" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="82" t="s">
         <v>76</v>
-      </c>
-      <c r="L22" s="82" t="s">
-        <v>77</v>
       </c>
       <c r="M22" s="81"/>
       <c r="N22" s="81"/>
@@ -4134,17 +4163,17 @@
       <c r="D23" s="32"/>
       <c r="E23" s="47"/>
       <c r="F23" s="79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="80"/>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
       <c r="J23" s="79"/>
       <c r="K23" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L23" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M23" s="81"/>
       <c r="N23" s="81"/>
@@ -4166,22 +4195,22 @@
       <c r="D24" s="32"/>
       <c r="E24" s="47"/>
       <c r="F24" s="79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="80"/>
       <c r="H24" s="79"/>
       <c r="I24" s="79"/>
       <c r="J24" s="79"/>
       <c r="K24" s="81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" s="82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="81"/>
       <c r="N24" s="81"/>
       <c r="O24" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P24" s="33"/>
       <c r="Q24" s="84"/>
@@ -4198,14 +4227,14 @@
       <c r="D25" s="32"/>
       <c r="E25" s="47"/>
       <c r="F25" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="93"/>
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
       <c r="J25" s="93"/>
       <c r="K25" s="94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" s="95" t="s">
         <v>24</v>
@@ -4213,7 +4242,7 @@
       <c r="M25" s="94"/>
       <c r="N25" s="94"/>
       <c r="O25" s="83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="33"/>
       <c r="Q25" s="84"/>
@@ -4231,16 +4260,16 @@
       <c r="E26" s="47"/>
       <c r="F26" s="99"/>
       <c r="G26" s="100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
       <c r="K26" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="103" t="s">
         <v>87</v>
-      </c>
-      <c r="L26" s="103" t="s">
-        <v>88</v>
       </c>
       <c r="M26" s="104"/>
       <c r="N26" s="104"/>
@@ -4254,7 +4283,7 @@
       <c r="T26" s="108"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
-      <c r="W26" s="267"/>
+      <c r="W26" s="263"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
@@ -4288,20 +4317,20 @@
       <c r="E27" s="47"/>
       <c r="F27" s="99"/>
       <c r="G27" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="101"/>
       <c r="J27" s="101"/>
       <c r="K27" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" s="112" t="s">
         <v>90</v>
-      </c>
-      <c r="L27" s="112" t="s">
-        <v>91</v>
       </c>
       <c r="M27" s="113"/>
       <c r="N27" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O27" s="114"/>
       <c r="P27" s="106"/>
@@ -4311,7 +4340,7 @@
       <c r="T27" s="108"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
-      <c r="W27" s="267"/>
+      <c r="W27" s="263"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
@@ -4345,20 +4374,20 @@
       <c r="E28" s="47"/>
       <c r="F28" s="99"/>
       <c r="G28" s="110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H28" s="110"/>
       <c r="I28" s="101"/>
       <c r="J28" s="101"/>
       <c r="K28" s="111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L28" s="112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M28" s="113"/>
       <c r="N28" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="114"/>
       <c r="P28" s="106"/>
@@ -4368,7 +4397,7 @@
       <c r="T28" s="108"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
-      <c r="W28" s="267"/>
+      <c r="W28" s="263"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
@@ -4402,23 +4431,23 @@
       <c r="E29" s="47"/>
       <c r="F29" s="99"/>
       <c r="G29" s="117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="118"/>
       <c r="I29" s="119"/>
       <c r="J29" s="119"/>
       <c r="K29" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L29" s="120" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="120"/>
       <c r="N29" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="O29" s="121" t="s">
         <v>97</v>
-      </c>
-      <c r="O29" s="121" t="s">
-        <v>98</v>
       </c>
       <c r="P29" s="106"/>
       <c r="Q29" s="122"/>
@@ -4427,7 +4456,7 @@
       <c r="T29" s="108"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
-      <c r="W29" s="267"/>
+      <c r="W29" s="263"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
@@ -4474,7 +4503,7 @@
       <c r="T30" s="33"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
-      <c r="W30" s="267"/>
+      <c r="W30" s="263"/>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
@@ -4508,21 +4537,21 @@
       <c r="C31" s="37"/>
       <c r="D31" s="32"/>
       <c r="E31" s="47"/>
-      <c r="F31" s="262" t="s">
+      <c r="F31" s="264" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="124" t="s">
         <v>99</v>
-      </c>
-      <c r="G31" s="124" t="s">
-        <v>100</v>
       </c>
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
       <c r="J31" s="93"/>
       <c r="K31" s="125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L31" s="95"/>
       <c r="M31" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N31" s="94" t="s">
         <v>19</v>
@@ -4544,18 +4573,18 @@
       <c r="C32" s="37"/>
       <c r="D32" s="32"/>
       <c r="E32" s="47"/>
-      <c r="F32" s="262"/>
+      <c r="F32" s="264"/>
       <c r="G32" s="93"/>
       <c r="H32" s="93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="93"/>
       <c r="J32" s="93"/>
       <c r="K32" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="95" t="s">
         <v>104</v>
-      </c>
-      <c r="L32" s="95" t="s">
-        <v>105</v>
       </c>
       <c r="M32" s="94"/>
       <c r="N32" s="94"/>
@@ -4576,18 +4605,18 @@
       <c r="C33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="47"/>
-      <c r="F33" s="262"/>
+      <c r="F33" s="264"/>
       <c r="G33" s="93"/>
       <c r="H33" s="93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="93"/>
       <c r="J33" s="93"/>
       <c r="K33" s="125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M33" s="94"/>
       <c r="N33" s="94"/>
@@ -4608,18 +4637,18 @@
       <c r="C34" s="37"/>
       <c r="D34" s="32"/>
       <c r="E34" s="47"/>
-      <c r="F34" s="262"/>
+      <c r="F34" s="264"/>
       <c r="G34" s="93"/>
       <c r="H34" s="126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="126"/>
       <c r="J34" s="126"/>
       <c r="K34" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="128" t="s">
         <v>109</v>
-      </c>
-      <c r="L34" s="128" t="s">
-        <v>110</v>
       </c>
       <c r="M34" s="127"/>
       <c r="N34" s="127"/>
@@ -4642,18 +4671,18 @@
       <c r="C35" s="37"/>
       <c r="D35" s="32"/>
       <c r="E35" s="47"/>
-      <c r="F35" s="262"/>
+      <c r="F35" s="264"/>
       <c r="G35" s="93"/>
       <c r="H35" s="126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="126"/>
       <c r="J35" s="126"/>
       <c r="K35" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="128" t="s">
         <v>112</v>
-      </c>
-      <c r="L35" s="128" t="s">
-        <v>113</v>
       </c>
       <c r="M35" s="127"/>
       <c r="N35" s="127"/>
@@ -4674,24 +4703,24 @@
       <c r="C36" s="37"/>
       <c r="D36" s="32"/>
       <c r="E36" s="47"/>
-      <c r="F36" s="262"/>
+      <c r="F36" s="264"/>
       <c r="G36" s="93"/>
       <c r="H36" s="126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="126"/>
       <c r="J36" s="126"/>
       <c r="K36" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="L36" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="L36" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="127" t="s">
+      <c r="N36" s="127" t="s">
         <v>116</v>
-      </c>
-      <c r="N36" s="127" t="s">
-        <v>117</v>
       </c>
       <c r="O36" s="69" t="s">
         <v>27</v>
@@ -4710,18 +4739,18 @@
       <c r="C37" s="37"/>
       <c r="D37" s="32"/>
       <c r="E37" s="47"/>
-      <c r="F37" s="262"/>
+      <c r="F37" s="264"/>
       <c r="G37" s="93"/>
       <c r="H37" s="93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="93"/>
       <c r="J37" s="93"/>
       <c r="K37" s="94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" s="95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M37" s="94"/>
       <c r="N37" s="94"/>
@@ -4740,24 +4769,24 @@
       <c r="C38" s="37"/>
       <c r="D38" s="32"/>
       <c r="E38" s="47"/>
-      <c r="F38" s="262"/>
+      <c r="F38" s="264"/>
       <c r="G38" s="93"/>
       <c r="H38" s="93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="93"/>
       <c r="J38" s="93"/>
       <c r="K38" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="L38" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="M38" s="94" t="s">
+      <c r="N38" s="94" t="s">
         <v>122</v>
-      </c>
-      <c r="N38" s="94" t="s">
-        <v>123</v>
       </c>
       <c r="O38" s="83"/>
       <c r="P38" s="33"/>
@@ -4774,18 +4803,18 @@
       <c r="C39" s="37"/>
       <c r="D39" s="32"/>
       <c r="E39" s="47"/>
-      <c r="F39" s="262"/>
+      <c r="F39" s="264"/>
       <c r="G39" s="93"/>
       <c r="H39" s="126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I39" s="126"/>
       <c r="J39" s="126"/>
       <c r="K39" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" s="128" t="s">
         <v>125</v>
-      </c>
-      <c r="L39" s="128" t="s">
-        <v>126</v>
       </c>
       <c r="M39" s="127"/>
       <c r="N39" s="127"/>
@@ -4806,18 +4835,18 @@
       <c r="C40" s="37"/>
       <c r="D40" s="32"/>
       <c r="E40" s="47"/>
-      <c r="F40" s="262"/>
+      <c r="F40" s="264"/>
       <c r="G40" s="93"/>
       <c r="H40" s="126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="126"/>
       <c r="J40" s="126"/>
       <c r="K40" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="128" t="s">
         <v>128</v>
-      </c>
-      <c r="L40" s="128" t="s">
-        <v>129</v>
       </c>
       <c r="M40" s="127"/>
       <c r="N40" s="127"/>
@@ -4838,18 +4867,18 @@
       <c r="C41" s="37"/>
       <c r="D41" s="32"/>
       <c r="E41" s="47"/>
-      <c r="F41" s="262"/>
+      <c r="F41" s="264"/>
       <c r="G41" s="93"/>
       <c r="H41" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="126"/>
       <c r="K41" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" s="128" t="s">
         <v>131</v>
-      </c>
-      <c r="L41" s="128" t="s">
-        <v>132</v>
       </c>
       <c r="M41" s="127"/>
       <c r="N41" s="127"/>
@@ -4870,18 +4899,18 @@
       <c r="C42" s="37"/>
       <c r="D42" s="32"/>
       <c r="E42" s="47"/>
-      <c r="F42" s="262"/>
+      <c r="F42" s="264"/>
       <c r="G42" s="93"/>
       <c r="H42" s="93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="93"/>
       <c r="J42" s="93"/>
       <c r="K42" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="L42" s="95" t="s">
         <v>134</v>
-      </c>
-      <c r="L42" s="95" t="s">
-        <v>135</v>
       </c>
       <c r="M42" s="94"/>
       <c r="N42" s="94"/>
@@ -4902,17 +4931,17 @@
       <c r="C43" s="37"/>
       <c r="D43" s="32"/>
       <c r="E43" s="47"/>
-      <c r="F43" s="262"/>
+      <c r="F43" s="264"/>
       <c r="G43" s="93"/>
-      <c r="H43" s="263" t="s">
-        <v>99</v>
+      <c r="H43" s="265" t="s">
+        <v>98</v>
       </c>
       <c r="I43" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J43" s="130"/>
       <c r="K43" s="131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L43" s="132"/>
       <c r="M43" s="131"/>
@@ -4934,9 +4963,9 @@
       <c r="C44" s="37"/>
       <c r="D44" s="32"/>
       <c r="E44" s="47"/>
-      <c r="F44" s="262"/>
+      <c r="F44" s="264"/>
       <c r="G44" s="93"/>
-      <c r="H44" s="264"/>
+      <c r="H44" s="266"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93"/>
       <c r="K44" s="93"/>
@@ -4960,15 +4989,15 @@
       <c r="C45" s="37"/>
       <c r="D45" s="32"/>
       <c r="E45" s="47"/>
-      <c r="F45" s="262"/>
+      <c r="F45" s="264"/>
       <c r="G45" s="93"/>
-      <c r="H45" s="264"/>
+      <c r="H45" s="266"/>
       <c r="I45" s="129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J45" s="130"/>
       <c r="K45" s="131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L45" s="132"/>
       <c r="M45" s="131"/>
@@ -4990,24 +5019,24 @@
       <c r="C46" s="37"/>
       <c r="D46" s="32"/>
       <c r="E46" s="47"/>
-      <c r="F46" s="262"/>
+      <c r="F46" s="264"/>
       <c r="G46" s="93"/>
-      <c r="H46" s="264"/>
+      <c r="H46" s="266"/>
       <c r="I46" s="130"/>
       <c r="J46" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="K46" s="131" t="s">
+      <c r="L46" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="L46" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="131" t="s">
+      <c r="N46" s="131" t="s">
         <v>142</v>
-      </c>
-      <c r="N46" s="131" t="s">
-        <v>143</v>
       </c>
       <c r="O46" s="83"/>
       <c r="P46" s="33"/>
@@ -5024,24 +5053,24 @@
       <c r="C47" s="37"/>
       <c r="D47" s="32"/>
       <c r="E47" s="47"/>
-      <c r="F47" s="262"/>
+      <c r="F47" s="264"/>
       <c r="G47" s="93"/>
-      <c r="H47" s="264"/>
+      <c r="H47" s="266"/>
       <c r="I47" s="130"/>
       <c r="J47" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="K47" s="131" t="s">
+      <c r="L47" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="L47" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="131" t="s">
-        <v>146</v>
-      </c>
       <c r="N47" s="131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="83"/>
       <c r="P47" s="33"/>
@@ -5058,18 +5087,18 @@
       <c r="C48" s="37"/>
       <c r="D48" s="32"/>
       <c r="E48" s="47"/>
-      <c r="F48" s="262"/>
+      <c r="F48" s="264"/>
       <c r="G48" s="93"/>
-      <c r="H48" s="264"/>
+      <c r="H48" s="266"/>
       <c r="I48" s="130"/>
       <c r="J48" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="K48" s="131" t="s">
+      <c r="L48" s="132" t="s">
         <v>148</v>
-      </c>
-      <c r="L48" s="132" t="s">
-        <v>149</v>
       </c>
       <c r="M48" s="131"/>
       <c r="N48" s="131"/>
@@ -5090,9 +5119,9 @@
       <c r="C49" s="37"/>
       <c r="D49" s="32"/>
       <c r="E49" s="47"/>
-      <c r="F49" s="262"/>
+      <c r="F49" s="264"/>
       <c r="G49" s="93"/>
-      <c r="H49" s="264"/>
+      <c r="H49" s="266"/>
       <c r="I49" s="93"/>
       <c r="J49" s="93"/>
       <c r="K49" s="93"/>
@@ -5116,15 +5145,15 @@
       <c r="C50" s="37"/>
       <c r="D50" s="32"/>
       <c r="E50" s="47"/>
-      <c r="F50" s="262"/>
+      <c r="F50" s="264"/>
       <c r="G50" s="93"/>
-      <c r="H50" s="264"/>
+      <c r="H50" s="266"/>
       <c r="I50" s="129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J50" s="130"/>
       <c r="K50" s="131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L50" s="132"/>
       <c r="M50" s="131"/>
@@ -5146,24 +5175,24 @@
       <c r="C51" s="37"/>
       <c r="D51" s="32"/>
       <c r="E51" s="47"/>
-      <c r="F51" s="262"/>
+      <c r="F51" s="264"/>
       <c r="G51" s="93"/>
-      <c r="H51" s="264"/>
+      <c r="H51" s="266"/>
       <c r="I51" s="130"/>
       <c r="J51" s="130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K51" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="L51" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="M51" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="L51" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="M51" s="131" t="s">
+      <c r="N51" s="131" t="s">
         <v>153</v>
-      </c>
-      <c r="N51" s="131" t="s">
-        <v>154</v>
       </c>
       <c r="O51" s="83"/>
       <c r="P51" s="33"/>
@@ -5182,9 +5211,9 @@
       <c r="C52" s="37"/>
       <c r="D52" s="32"/>
       <c r="E52" s="47"/>
-      <c r="F52" s="262"/>
+      <c r="F52" s="264"/>
       <c r="G52" s="93"/>
-      <c r="H52" s="264"/>
+      <c r="H52" s="266"/>
       <c r="I52" s="93"/>
       <c r="J52" s="93"/>
       <c r="K52" s="93"/>
@@ -5208,15 +5237,15 @@
       <c r="C53" s="37"/>
       <c r="D53" s="32"/>
       <c r="E53" s="47"/>
-      <c r="F53" s="262"/>
+      <c r="F53" s="264"/>
       <c r="G53" s="93"/>
-      <c r="H53" s="264"/>
+      <c r="H53" s="266"/>
       <c r="I53" s="129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J53" s="130"/>
       <c r="K53" s="131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L53" s="132"/>
       <c r="M53" s="131"/>
@@ -5236,24 +5265,24 @@
       <c r="C54" s="37"/>
       <c r="D54" s="32"/>
       <c r="E54" s="47"/>
-      <c r="F54" s="262"/>
+      <c r="F54" s="264"/>
       <c r="G54" s="93"/>
-      <c r="H54" s="264"/>
+      <c r="H54" s="266"/>
       <c r="I54" s="130"/>
       <c r="J54" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="K54" s="134" t="s">
+      <c r="L54" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="M54" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="L54" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="134" t="s">
-        <v>159</v>
-      </c>
       <c r="N54" s="134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O54" s="136" t="s">
         <v>27</v>
@@ -5272,24 +5301,24 @@
       <c r="C55" s="37"/>
       <c r="D55" s="32"/>
       <c r="E55" s="47"/>
-      <c r="F55" s="262"/>
+      <c r="F55" s="264"/>
       <c r="G55" s="93"/>
-      <c r="H55" s="264"/>
+      <c r="H55" s="266"/>
       <c r="I55" s="130"/>
       <c r="J55" s="133" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="K55" s="134" t="s">
+      <c r="L55" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="L55" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="M55" s="134" t="s">
+      <c r="N55" s="134" t="s">
         <v>162</v>
-      </c>
-      <c r="N55" s="134" t="s">
-        <v>163</v>
       </c>
       <c r="O55" s="69" t="s">
         <v>27</v>
@@ -5308,18 +5337,18 @@
       <c r="C56" s="37"/>
       <c r="D56" s="32"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="262"/>
+      <c r="F56" s="264"/>
       <c r="G56" s="93"/>
-      <c r="H56" s="264"/>
+      <c r="H56" s="266"/>
       <c r="I56" s="130"/>
       <c r="J56" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="K56" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="K56" s="131" t="s">
+      <c r="L56" s="132" t="s">
         <v>148</v>
-      </c>
-      <c r="L56" s="132" t="s">
-        <v>149</v>
       </c>
       <c r="M56" s="131"/>
       <c r="N56" s="131"/>
@@ -5338,7 +5367,7 @@
       <c r="C57" s="37"/>
       <c r="D57" s="32"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="262"/>
+      <c r="F57" s="264"/>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
@@ -5364,19 +5393,19 @@
       <c r="C58" s="37"/>
       <c r="D58" s="32"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="262"/>
+      <c r="F58" s="264"/>
       <c r="G58" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H58" s="138"/>
       <c r="I58" s="138"/>
       <c r="J58" s="101"/>
       <c r="K58" s="94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L58" s="95"/>
       <c r="M58" s="94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N58" s="94"/>
       <c r="O58" s="41"/>
@@ -5396,24 +5425,24 @@
       <c r="C59" s="37"/>
       <c r="D59" s="32"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="262"/>
+      <c r="F59" s="264"/>
       <c r="G59" s="93"/>
       <c r="H59" s="139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I59" s="101"/>
       <c r="J59" s="138"/>
       <c r="K59" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="L59" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="L59" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="M59" s="140" t="s">
+      <c r="N59" s="140" t="s">
         <v>169</v>
-      </c>
-      <c r="N59" s="140" t="s">
-        <v>170</v>
       </c>
       <c r="O59" s="142" t="s">
         <v>27</v>
@@ -5434,24 +5463,24 @@
       <c r="C60" s="37"/>
       <c r="D60" s="32"/>
       <c r="E60" s="47"/>
-      <c r="F60" s="262"/>
+      <c r="F60" s="264"/>
       <c r="G60" s="93"/>
       <c r="H60" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I60" s="101"/>
       <c r="J60" s="138"/>
       <c r="K60" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="L60" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="L60" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="M60" s="94" t="s">
+      <c r="N60" s="94" t="s">
         <v>173</v>
-      </c>
-      <c r="N60" s="94" t="s">
-        <v>174</v>
       </c>
       <c r="O60" s="136"/>
       <c r="P60" s="33"/>
@@ -5468,18 +5497,18 @@
       <c r="C61" s="37"/>
       <c r="D61" s="32"/>
       <c r="E61" s="47"/>
-      <c r="F61" s="262"/>
+      <c r="F61" s="264"/>
       <c r="G61" s="93"/>
       <c r="H61" s="101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I61" s="101"/>
       <c r="J61" s="138"/>
       <c r="K61" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="L61" s="95" t="s">
         <v>176</v>
-      </c>
-      <c r="L61" s="95" t="s">
-        <v>177</v>
       </c>
       <c r="M61" s="94"/>
       <c r="N61" s="94"/>
@@ -5498,18 +5527,18 @@
       <c r="C62" s="37"/>
       <c r="D62" s="32"/>
       <c r="E62" s="47"/>
-      <c r="F62" s="262"/>
+      <c r="F62" s="264"/>
       <c r="G62" s="93"/>
       <c r="H62" s="144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I62" s="101"/>
       <c r="J62" s="138"/>
       <c r="K62" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="L62" s="128" t="s">
         <v>179</v>
-      </c>
-      <c r="L62" s="128" t="s">
-        <v>180</v>
       </c>
       <c r="M62" s="127"/>
       <c r="N62" s="127"/>
@@ -5528,18 +5557,18 @@
       <c r="C63" s="37"/>
       <c r="D63" s="32"/>
       <c r="E63" s="47"/>
-      <c r="F63" s="262"/>
+      <c r="F63" s="264"/>
       <c r="G63" s="93"/>
       <c r="H63" s="144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I63" s="101"/>
       <c r="J63" s="138"/>
       <c r="K63" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="L63" s="128" t="s">
         <v>182</v>
-      </c>
-      <c r="L63" s="128" t="s">
-        <v>183</v>
       </c>
       <c r="M63" s="127"/>
       <c r="N63" s="127"/>
@@ -5562,17 +5591,17 @@
       <c r="C64" s="37"/>
       <c r="D64" s="32"/>
       <c r="E64" s="47"/>
-      <c r="F64" s="262"/>
+      <c r="F64" s="264"/>
       <c r="G64" s="93"/>
-      <c r="H64" s="263" t="s">
-        <v>99</v>
+      <c r="H64" s="265" t="s">
+        <v>98</v>
       </c>
       <c r="I64" s="145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J64" s="146"/>
       <c r="K64" s="147" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L64" s="148"/>
       <c r="M64" s="149"/>
@@ -5592,18 +5621,18 @@
       <c r="C65" s="37"/>
       <c r="D65" s="32"/>
       <c r="E65" s="47"/>
-      <c r="F65" s="262"/>
+      <c r="F65" s="264"/>
       <c r="G65" s="93"/>
-      <c r="H65" s="264"/>
+      <c r="H65" s="266"/>
       <c r="I65" s="146"/>
       <c r="J65" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="K65" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="K65" s="134" t="s">
+      <c r="L65" s="135" t="s">
         <v>187</v>
-      </c>
-      <c r="L65" s="135" t="s">
-        <v>188</v>
       </c>
       <c r="M65" s="134"/>
       <c r="N65" s="134"/>
@@ -5624,18 +5653,18 @@
       <c r="C66" s="37"/>
       <c r="D66" s="32"/>
       <c r="E66" s="47"/>
-      <c r="F66" s="262"/>
+      <c r="F66" s="264"/>
       <c r="G66" s="93"/>
-      <c r="H66" s="264"/>
+      <c r="H66" s="266"/>
       <c r="I66" s="146"/>
       <c r="J66" s="152" t="s">
+        <v>188</v>
+      </c>
+      <c r="K66" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="K66" s="153" t="s">
+      <c r="L66" s="154" t="s">
         <v>190</v>
-      </c>
-      <c r="L66" s="154" t="s">
-        <v>191</v>
       </c>
       <c r="M66" s="153"/>
       <c r="N66" s="153"/>
@@ -5656,18 +5685,18 @@
       <c r="C67" s="37"/>
       <c r="D67" s="32"/>
       <c r="E67" s="47"/>
-      <c r="F67" s="262"/>
+      <c r="F67" s="264"/>
       <c r="G67" s="93"/>
-      <c r="H67" s="264"/>
+      <c r="H67" s="266"/>
       <c r="I67" s="146"/>
       <c r="J67" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="K67" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="K67" s="149" t="s">
-        <v>193</v>
-      </c>
       <c r="L67" s="148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M67" s="149"/>
       <c r="N67" s="149"/>
@@ -5686,24 +5715,24 @@
       <c r="C68" s="37"/>
       <c r="D68" s="32"/>
       <c r="E68" s="47"/>
-      <c r="F68" s="262"/>
+      <c r="F68" s="264"/>
       <c r="G68" s="93"/>
-      <c r="H68" s="264"/>
+      <c r="H68" s="266"/>
       <c r="I68" s="146"/>
       <c r="J68" s="146" t="s">
+        <v>193</v>
+      </c>
+      <c r="K68" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="K68" s="149" t="s">
+      <c r="L68" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="L68" s="148" t="s">
-        <v>51</v>
-      </c>
-      <c r="M68" s="149" t="s">
+      <c r="N68" s="149" t="s">
         <v>196</v>
-      </c>
-      <c r="N68" s="149" t="s">
-        <v>197</v>
       </c>
       <c r="O68" s="150"/>
       <c r="P68" s="33"/>
@@ -5720,18 +5749,18 @@
       <c r="C69" s="37"/>
       <c r="D69" s="32"/>
       <c r="E69" s="47"/>
-      <c r="F69" s="262"/>
+      <c r="F69" s="264"/>
       <c r="G69" s="93"/>
-      <c r="H69" s="264"/>
+      <c r="H69" s="266"/>
       <c r="I69" s="146"/>
       <c r="J69" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="K69" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="K69" s="149" t="s">
-        <v>199</v>
-      </c>
       <c r="L69" s="148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M69" s="149"/>
       <c r="N69" s="149"/>
@@ -5752,9 +5781,9 @@
       <c r="C70" s="37"/>
       <c r="D70" s="32"/>
       <c r="E70" s="47"/>
-      <c r="F70" s="262"/>
+      <c r="F70" s="264"/>
       <c r="G70" s="93"/>
-      <c r="H70" s="264"/>
+      <c r="H70" s="266"/>
       <c r="I70" s="93"/>
       <c r="J70" s="93"/>
       <c r="K70" s="93"/>
@@ -5778,15 +5807,15 @@
       <c r="C71" s="37"/>
       <c r="D71" s="32"/>
       <c r="E71" s="47"/>
-      <c r="F71" s="262"/>
+      <c r="F71" s="264"/>
       <c r="G71" s="93"/>
-      <c r="H71" s="264"/>
+      <c r="H71" s="266"/>
       <c r="I71" s="145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J71" s="146"/>
       <c r="K71" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L71" s="148"/>
       <c r="M71" s="149"/>
@@ -5806,18 +5835,18 @@
       <c r="C72" s="37"/>
       <c r="D72" s="32"/>
       <c r="E72" s="47"/>
-      <c r="F72" s="262"/>
+      <c r="F72" s="264"/>
       <c r="G72" s="93"/>
-      <c r="H72" s="264"/>
+      <c r="H72" s="266"/>
       <c r="I72" s="146"/>
       <c r="J72" s="146" t="s">
+        <v>201</v>
+      </c>
+      <c r="K72" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="K72" s="149" t="s">
-        <v>203</v>
-      </c>
       <c r="L72" s="148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M72" s="149"/>
       <c r="N72" s="149"/>
@@ -5836,18 +5865,18 @@
       <c r="C73" s="37"/>
       <c r="D73" s="32"/>
       <c r="E73" s="47"/>
-      <c r="F73" s="262"/>
+      <c r="F73" s="264"/>
       <c r="G73" s="93"/>
-      <c r="H73" s="264"/>
+      <c r="H73" s="266"/>
       <c r="I73" s="146"/>
       <c r="J73" s="146" t="s">
+        <v>203</v>
+      </c>
+      <c r="K73" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="K73" s="149" t="s">
-        <v>205</v>
-      </c>
       <c r="L73" s="148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M73" s="149"/>
       <c r="N73" s="149"/>
@@ -5868,9 +5897,9 @@
       <c r="C74" s="37"/>
       <c r="D74" s="32"/>
       <c r="E74" s="47"/>
-      <c r="F74" s="262"/>
+      <c r="F74" s="264"/>
       <c r="G74" s="93"/>
-      <c r="H74" s="264"/>
+      <c r="H74" s="266"/>
       <c r="I74" s="93"/>
       <c r="J74" s="93"/>
       <c r="K74" s="93"/>
@@ -5894,15 +5923,15 @@
       <c r="C75" s="37"/>
       <c r="D75" s="32"/>
       <c r="E75" s="47"/>
-      <c r="F75" s="262"/>
+      <c r="F75" s="264"/>
       <c r="G75" s="93"/>
-      <c r="H75" s="264"/>
+      <c r="H75" s="266"/>
       <c r="I75" s="145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J75" s="146"/>
       <c r="K75" s="149" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L75" s="148"/>
       <c r="M75" s="149"/>
@@ -5922,7 +5951,7 @@
       <c r="C76" s="37"/>
       <c r="D76" s="32"/>
       <c r="E76" s="47"/>
-      <c r="F76" s="262"/>
+      <c r="F76" s="264"/>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
       <c r="I76" s="47"/>
@@ -5946,15 +5975,15 @@
       <c r="C77" s="37"/>
       <c r="D77" s="32"/>
       <c r="E77" s="47"/>
-      <c r="F77" s="262"/>
+      <c r="F77" s="264"/>
       <c r="G77" s="155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H77" s="101"/>
       <c r="I77" s="156"/>
       <c r="J77" s="101"/>
       <c r="K77" s="157" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L77" s="158"/>
       <c r="M77" s="157"/>
@@ -5974,18 +6003,18 @@
       <c r="C78" s="37"/>
       <c r="D78" s="32"/>
       <c r="E78" s="47"/>
-      <c r="F78" s="262"/>
+      <c r="F78" s="264"/>
       <c r="G78" s="101"/>
       <c r="H78" s="159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I78" s="101"/>
       <c r="J78" s="159"/>
       <c r="K78" s="157" t="s">
+        <v>210</v>
+      </c>
+      <c r="L78" s="158" t="s">
         <v>211</v>
-      </c>
-      <c r="L78" s="158" t="s">
-        <v>212</v>
       </c>
       <c r="M78" s="157"/>
       <c r="N78" s="157"/>
@@ -16709,11 +16738,11 @@
   <sheetPr>
     <tabColor rgb="FFBFBFBF"/>
   </sheetPr>
-  <dimension ref="A1:U854"/>
+  <dimension ref="A1:U855"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16768,7 +16797,7 @@
         <v>5</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="179"/>
       <c r="R1" s="180"/>
@@ -16776,7 +16805,7 @@
         <v>7</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>9</v>
@@ -16812,7 +16841,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="18"/>
       <c r="D3" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
@@ -16822,7 +16851,7 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="22"/>
@@ -16875,7 +16904,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="31"/>
       <c r="E5" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="184"/>
@@ -16884,7 +16913,7 @@
       <c r="J5" s="184"/>
       <c r="K5" s="184"/>
       <c r="L5" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
@@ -16938,7 +16967,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="39"/>
       <c r="F7" s="202" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G7" s="188"/>
       <c r="H7" s="203"/>
@@ -16946,7 +16975,7 @@
       <c r="J7" s="203"/>
       <c r="K7" s="203"/>
       <c r="L7" s="186" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M7" s="186"/>
       <c r="N7" s="186"/>
@@ -16995,14 +17024,14 @@
       <c r="E9" s="39"/>
       <c r="F9" s="185"/>
       <c r="G9" s="206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="207"/>
       <c r="K9" s="207"/>
       <c r="L9" s="208" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M9" s="208" t="s">
         <v>24</v>
@@ -17058,80 +17087,66 @@
       <c r="F11" s="185"/>
       <c r="G11" s="212"/>
       <c r="H11" s="213" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I11" s="214"/>
       <c r="J11" s="214"/>
       <c r="K11" s="214"/>
       <c r="L11" s="215" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M11" s="215" t="s">
         <v>24</v>
       </c>
       <c r="N11" s="215"/>
       <c r="O11" s="215" t="s">
+        <v>226</v>
+      </c>
+      <c r="P11" s="41" t="s">
         <v>227</v>
-      </c>
-      <c r="P11" s="41" t="s">
-        <v>228</v>
       </c>
       <c r="Q11" s="24"/>
       <c r="R11" s="26"/>
       <c r="S11" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T11" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U11" s="43"/>
     </row>
-    <row r="12" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="182">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:21" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="182"/>
       <c r="B12" s="183"/>
       <c r="C12" s="12"/>
       <c r="D12" s="31"/>
       <c r="E12" s="39"/>
       <c r="F12" s="185"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="214"/>
-      <c r="I12" s="215" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="215"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="215" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="69" t="s">
-        <v>27</v>
-      </c>
+      <c r="G12" s="212"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="271" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="268"/>
+      <c r="K12" s="268"/>
+      <c r="L12" s="269" t="s">
+        <v>295</v>
+      </c>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="41"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T12" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="43" t="s">
-        <v>41</v>
-      </c>
+      <c r="S12" s="85"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="85"/>
     </row>
     <row r="13" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="182">
         <v>1</v>
       </c>
-      <c r="B13" s="183" t="s">
-        <v>10</v>
-      </c>
+      <c r="B13" s="183"/>
       <c r="C13" s="12"/>
       <c r="D13" s="31"/>
       <c r="E13" s="39"/>
@@ -17139,29 +17154,31 @@
       <c r="G13" s="207"/>
       <c r="H13" s="214"/>
       <c r="I13" s="215" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J13" s="215"/>
       <c r="K13" s="215"/>
       <c r="L13" s="215" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="M13" s="215" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N13" s="215"/>
       <c r="O13" s="215"/>
-      <c r="P13" s="136" t="s">
+      <c r="P13" s="69" t="s">
         <v>27</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="26"/>
       <c r="S13" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="T13" s="44"/>
+        <v>15</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="U13" s="43" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -17178,176 +17195,180 @@
       <c r="G14" s="207"/>
       <c r="H14" s="214"/>
       <c r="I14" s="215" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J14" s="215"/>
       <c r="K14" s="215"/>
       <c r="L14" s="215" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M14" s="215" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="215"/>
       <c r="O14" s="215"/>
-      <c r="P14" s="216" t="s">
+      <c r="P14" s="136" t="s">
         <v>27</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="26"/>
       <c r="S14" s="43" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="T14" s="44"/>
       <c r="U14" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182">
         <v>1</v>
       </c>
-      <c r="B15" s="183"/>
+      <c r="B15" s="183" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="12"/>
       <c r="D15" s="31"/>
       <c r="E15" s="39"/>
       <c r="F15" s="185"/>
-      <c r="G15" s="207" t="s">
-        <v>238</v>
-      </c>
+      <c r="G15" s="207"/>
       <c r="H15" s="214"/>
-      <c r="I15" s="265" t="s">
-        <v>239</v>
-      </c>
-      <c r="J15" s="265"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="265"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="265"/>
-      <c r="O15" s="265"/>
-      <c r="P15" s="83"/>
+      <c r="I15" s="215" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="215"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" s="215" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="215"/>
+      <c r="O15" s="215"/>
+      <c r="P15" s="216" t="s">
+        <v>27</v>
+      </c>
       <c r="Q15" s="24"/>
       <c r="R15" s="26"/>
       <c r="S15" s="43" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T15" s="44"/>
       <c r="U15" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="217">
-        <v>2</v>
+      <c r="A16" s="182">
+        <v>1</v>
       </c>
       <c r="B16" s="183"/>
       <c r="C16" s="12"/>
       <c r="D16" s="31"/>
       <c r="E16" s="39"/>
       <c r="F16" s="185"/>
-      <c r="G16" s="207"/>
+      <c r="G16" s="207" t="s">
+        <v>237</v>
+      </c>
       <c r="H16" s="214"/>
-      <c r="I16" s="215" t="s">
-        <v>241</v>
-      </c>
-      <c r="J16" s="215"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215" t="s">
-        <v>242</v>
-      </c>
-      <c r="M16" s="215" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="215"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="41"/>
+      <c r="I16" s="267" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="267"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="267"/>
+      <c r="O16" s="267"/>
+      <c r="P16" s="83"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="26"/>
       <c r="S16" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T16" s="44"/>
       <c r="U16" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="182">
-        <v>1</v>
-      </c>
-      <c r="B17" s="183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
+      <c r="A17" s="217">
+        <v>2</v>
+      </c>
+      <c r="B17" s="183"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="39"/>
       <c r="F17" s="185"/>
       <c r="G17" s="207"/>
       <c r="H17" s="214"/>
-      <c r="I17" s="218" t="s">
-        <v>244</v>
-      </c>
-      <c r="J17" s="119"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="189" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" s="189" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="189" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="69" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="215" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="215" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="215"/>
+      <c r="O17" s="215"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="85"/>
+      <c r="S17" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="T17" s="44"/>
+      <c r="U17" s="43" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="220">
-        <v>3</v>
-      </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="182">
+        <v>1</v>
+      </c>
+      <c r="B18" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="39"/>
       <c r="F18" s="185"/>
       <c r="G18" s="207"/>
       <c r="H18" s="214"/>
-      <c r="I18" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="222" t="s">
-        <v>247</v>
-      </c>
-      <c r="M18" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="O18" s="131" t="s">
-        <v>249</v>
-      </c>
-      <c r="P18" s="223"/>
+      <c r="I18" s="218" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="119"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="189" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="189" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="189" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="69" t="s">
+        <v>27</v>
+      </c>
       <c r="Q18" s="24"/>
       <c r="R18" s="26"/>
       <c r="S18" s="85"/>
       <c r="T18" s="86"/>
       <c r="U18" s="85"/>
     </row>
-    <row r="19" spans="1:21" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="182">
-        <v>1</v>
+    <row r="19" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="220">
+        <v>3</v>
       </c>
       <c r="B19" s="183"/>
       <c r="C19" s="12"/>
@@ -17356,28 +17377,34 @@
       <c r="F19" s="185"/>
       <c r="G19" s="207"/>
       <c r="H19" s="214"/>
-      <c r="I19" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="225" t="s">
-        <v>250</v>
-      </c>
-      <c r="K19" s="226"/>
-      <c r="L19" s="227" t="s">
-        <v>251</v>
-      </c>
-      <c r="M19" s="228"/>
-      <c r="N19" s="228"/>
-      <c r="O19" s="228"/>
-      <c r="P19" s="216"/>
+      <c r="I19" s="130" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="221"/>
+      <c r="K19" s="221"/>
+      <c r="L19" s="222" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="131" t="s">
+        <v>247</v>
+      </c>
+      <c r="O19" s="131" t="s">
+        <v>248</v>
+      </c>
+      <c r="P19" s="223"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="26"/>
       <c r="S19" s="85"/>
       <c r="T19" s="86"/>
       <c r="U19" s="85"/>
     </row>
-    <row r="20" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="229"/>
+    <row r="20" spans="1:21" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="182">
+        <v>1</v>
+      </c>
       <c r="B20" s="183"/>
       <c r="C20" s="12"/>
       <c r="D20" s="31"/>
@@ -17385,27 +17412,29 @@
       <c r="F20" s="185"/>
       <c r="G20" s="207"/>
       <c r="H20" s="214"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="215"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="46"/>
+      <c r="I20" s="224" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="225" t="s">
+        <v>249</v>
+      </c>
+      <c r="K20" s="226"/>
+      <c r="L20" s="227" t="s">
+        <v>250</v>
+      </c>
+      <c r="M20" s="228"/>
+      <c r="N20" s="228"/>
+      <c r="O20" s="228"/>
+      <c r="P20" s="216"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="26"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-    </row>
-    <row r="21" spans="1:21" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="182">
-        <v>1</v>
-      </c>
-      <c r="B21" s="183" t="s">
-        <v>10</v>
-      </c>
+      <c r="S20" s="85"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="85"/>
+    </row>
+    <row r="21" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="229"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="12"/>
       <c r="D21" s="31"/>
       <c r="E21" s="39"/>
@@ -17413,63 +17442,49 @@
       <c r="G21" s="207"/>
       <c r="H21" s="214"/>
       <c r="I21" s="224"/>
-      <c r="J21" s="225" t="s">
-        <v>252</v>
-      </c>
-      <c r="K21" s="232"/>
-      <c r="L21" s="233" t="s">
-        <v>253</v>
-      </c>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="83"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="46"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="85"/>
-    </row>
-    <row r="22" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+    </row>
+    <row r="22" spans="1:21" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="182">
         <v>1</v>
       </c>
       <c r="B22" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="39"/>
       <c r="F22" s="185"/>
       <c r="G22" s="207"/>
       <c r="H22" s="214"/>
       <c r="I22" s="224"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="235" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22" s="236" t="s">
-        <v>255</v>
-      </c>
-      <c r="M22" s="237" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="237" t="s">
-        <v>256</v>
-      </c>
-      <c r="O22" s="237" t="s">
-        <v>254</v>
-      </c>
-      <c r="P22" s="69" t="s">
-        <v>27</v>
-      </c>
+      <c r="J22" s="225" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" s="232"/>
+      <c r="L22" s="233" t="s">
+        <v>252</v>
+      </c>
+      <c r="M22" s="233"/>
+      <c r="N22" s="233"/>
+      <c r="O22" s="233"/>
+      <c r="P22" s="83"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="T22" s="44"/>
-      <c r="U22" s="43"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="85"/>
     </row>
     <row r="23" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="182">
@@ -17486,24 +17501,28 @@
       <c r="H23" s="214"/>
       <c r="I23" s="224"/>
       <c r="J23" s="234"/>
-      <c r="K23" s="238" t="s">
-        <v>258</v>
+      <c r="K23" s="235" t="s">
+        <v>253</v>
       </c>
       <c r="L23" s="236" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M23" s="237" t="s">
-        <v>260</v>
-      </c>
-      <c r="N23" s="237"/>
-      <c r="O23" s="237"/>
+        <v>50</v>
+      </c>
+      <c r="N23" s="237" t="s">
+        <v>255</v>
+      </c>
+      <c r="O23" s="237" t="s">
+        <v>253</v>
+      </c>
       <c r="P23" s="69" t="s">
         <v>27</v>
       </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="26"/>
       <c r="S23" s="43" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="T23" s="44"/>
       <c r="U23" s="43"/>
@@ -17522,36 +17541,36 @@
       <c r="G24" s="207"/>
       <c r="H24" s="214"/>
       <c r="I24" s="224"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="239" t="s">
-        <v>262</v>
-      </c>
-      <c r="L24" s="240" t="s">
-        <v>263</v>
-      </c>
-      <c r="M24" s="240" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="240" t="s">
-        <v>264</v>
-      </c>
-      <c r="O24" s="240" t="s">
-        <v>265</v>
-      </c>
-      <c r="P24" s="216" t="s">
+      <c r="J24" s="234"/>
+      <c r="K24" s="238" t="s">
+        <v>257</v>
+      </c>
+      <c r="L24" s="236" t="s">
+        <v>258</v>
+      </c>
+      <c r="M24" s="237" t="s">
+        <v>259</v>
+      </c>
+      <c r="N24" s="237"/>
+      <c r="O24" s="237"/>
+      <c r="P24" s="69" t="s">
         <v>27</v>
       </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="26"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="85"/>
+      <c r="S24" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="T24" s="44"/>
+      <c r="U24" s="43"/>
     </row>
     <row r="25" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="217">
-        <v>2</v>
-      </c>
-      <c r="B25" s="183"/>
+      <c r="A25" s="182">
+        <v>1</v>
+      </c>
+      <c r="B25" s="183" t="s">
+        <v>10</v>
+      </c>
       <c r="C25" s="45"/>
       <c r="D25" s="46"/>
       <c r="E25" s="39"/>
@@ -17559,61 +17578,65 @@
       <c r="G25" s="207"/>
       <c r="H25" s="214"/>
       <c r="I25" s="224"/>
-      <c r="J25" s="234"/>
-      <c r="K25" s="235" t="s">
-        <v>266</v>
-      </c>
-      <c r="L25" s="236" t="s">
-        <v>267</v>
-      </c>
-      <c r="M25" s="237" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" s="237"/>
-      <c r="O25" s="237"/>
-      <c r="P25" s="69" t="s">
+      <c r="J25" s="232"/>
+      <c r="K25" s="239" t="s">
+        <v>261</v>
+      </c>
+      <c r="L25" s="240" t="s">
+        <v>262</v>
+      </c>
+      <c r="M25" s="240" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="240" t="s">
+        <v>263</v>
+      </c>
+      <c r="O25" s="240" t="s">
+        <v>264</v>
+      </c>
+      <c r="P25" s="216" t="s">
         <v>27</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="T25" s="44"/>
-      <c r="U25" s="43"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="85"/>
     </row>
     <row r="26" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="220">
-        <v>3</v>
+      <c r="A26" s="217">
+        <v>2</v>
       </c>
       <c r="B26" s="183"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="39"/>
       <c r="F26" s="185"/>
       <c r="G26" s="207"/>
       <c r="H26" s="214"/>
       <c r="I26" s="224"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="226" t="s">
-        <v>269</v>
-      </c>
-      <c r="L26" s="227" t="s">
-        <v>270</v>
-      </c>
-      <c r="M26" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="N26" s="228"/>
-      <c r="O26" s="228"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="235" t="s">
+        <v>265</v>
+      </c>
+      <c r="L26" s="236" t="s">
+        <v>266</v>
+      </c>
+      <c r="M26" s="237" t="s">
+        <v>104</v>
+      </c>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
       <c r="P26" s="69" t="s">
         <v>27</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="26"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="85"/>
+      <c r="S26" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="T26" s="44"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="220">
@@ -17628,18 +17651,20 @@
       <c r="H27" s="214"/>
       <c r="I27" s="224"/>
       <c r="J27" s="232"/>
-      <c r="K27" s="232" t="s">
-        <v>272</v>
-      </c>
-      <c r="L27" s="241" t="s">
-        <v>273</v>
-      </c>
-      <c r="M27" s="233" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="233"/>
-      <c r="O27" s="233"/>
-      <c r="P27" s="83"/>
+      <c r="K27" s="226" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" s="227" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" s="228" t="s">
+        <v>270</v>
+      </c>
+      <c r="N27" s="228"/>
+      <c r="O27" s="228"/>
+      <c r="P27" s="69" t="s">
+        <v>27</v>
+      </c>
       <c r="Q27" s="24"/>
       <c r="R27" s="26"/>
       <c r="S27" s="85"/>
@@ -17647,7 +17672,9 @@
       <c r="U27" s="85"/>
     </row>
     <row r="28" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="229"/>
+      <c r="A28" s="220">
+        <v>3</v>
+      </c>
       <c r="B28" s="183"/>
       <c r="C28" s="12"/>
       <c r="D28" s="31"/>
@@ -17656,26 +17683,28 @@
       <c r="G28" s="207"/>
       <c r="H28" s="214"/>
       <c r="I28" s="224"/>
-      <c r="J28" s="230"/>
-      <c r="K28" s="230"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="215"/>
-      <c r="O28" s="215"/>
-      <c r="P28" s="46"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="232" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" s="241" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" s="233"/>
+      <c r="O28" s="233"/>
+      <c r="P28" s="83"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="26"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-    </row>
-    <row r="29" spans="1:21" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="182">
-        <v>1</v>
-      </c>
-      <c r="B29" s="183" t="s">
-        <v>10</v>
-      </c>
+      <c r="S28" s="85"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="85"/>
+    </row>
+    <row r="29" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="229"/>
+      <c r="B29" s="183"/>
       <c r="C29" s="12"/>
       <c r="D29" s="31"/>
       <c r="E29" s="39"/>
@@ -17683,24 +17712,20 @@
       <c r="G29" s="207"/>
       <c r="H29" s="214"/>
       <c r="I29" s="224"/>
-      <c r="J29" s="225" t="s">
-        <v>274</v>
-      </c>
-      <c r="K29" s="232"/>
-      <c r="L29" s="233" t="s">
-        <v>275</v>
-      </c>
-      <c r="M29" s="233"/>
-      <c r="N29" s="233"/>
-      <c r="O29" s="233"/>
-      <c r="P29" s="242"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="46"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="26"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="85"/>
-    </row>
-    <row r="30" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+    </row>
+    <row r="30" spans="1:21" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="182">
         <v>1</v>
       </c>
@@ -17714,30 +17739,22 @@
       <c r="G30" s="207"/>
       <c r="H30" s="214"/>
       <c r="I30" s="224"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="235" t="s">
-        <v>276</v>
-      </c>
-      <c r="L30" s="243" t="s">
-        <v>277</v>
-      </c>
-      <c r="M30" s="237" t="s">
-        <v>278</v>
-      </c>
-      <c r="N30" s="237"/>
-      <c r="O30" s="237"/>
-      <c r="P30" s="244" t="s">
-        <v>27</v>
-      </c>
+      <c r="J30" s="225" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" s="232"/>
+      <c r="L30" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" s="233"/>
+      <c r="N30" s="233"/>
+      <c r="O30" s="233"/>
+      <c r="P30" s="242"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="26"/>
-      <c r="S30" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="T30" s="44"/>
-      <c r="U30" s="43" t="s">
-        <v>234</v>
-      </c>
+      <c r="S30" s="85"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="85"/>
     </row>
     <row r="31" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="182">
@@ -17754,79 +17771,85 @@
       <c r="H31" s="214"/>
       <c r="I31" s="224"/>
       <c r="J31" s="232"/>
-      <c r="K31" s="232" t="s">
-        <v>280</v>
-      </c>
-      <c r="L31" s="245" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" s="233" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="246"/>
+      <c r="K31" s="235" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" s="243" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" s="237" t="s">
+        <v>277</v>
+      </c>
+      <c r="N31" s="237"/>
+      <c r="O31" s="237"/>
+      <c r="P31" s="244" t="s">
+        <v>27</v>
+      </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="26"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="85"/>
+      <c r="S31" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="T31" s="44"/>
+      <c r="U31" s="43" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="229"/>
-      <c r="B32" s="183"/>
+      <c r="A32" s="182">
+        <v>1</v>
+      </c>
+      <c r="B32" s="183" t="s">
+        <v>10</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="31"/>
       <c r="E32" s="39"/>
       <c r="F32" s="185"/>
       <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="207"/>
-      <c r="L32" s="207"/>
-      <c r="M32" s="207"/>
-      <c r="N32" s="207"/>
-      <c r="O32" s="207"/>
-      <c r="P32" s="46"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="232" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" s="245" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" s="233" t="s">
+        <v>190</v>
+      </c>
+      <c r="N32" s="233"/>
+      <c r="O32" s="233"/>
+      <c r="P32" s="246"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="26"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-    </row>
-    <row r="33" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="217">
-        <v>2</v>
-      </c>
+      <c r="S32" s="85"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="85"/>
+    </row>
+    <row r="33" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="229"/>
       <c r="B33" s="183"/>
       <c r="C33" s="12"/>
       <c r="D33" s="31"/>
       <c r="E33" s="39"/>
       <c r="F33" s="185"/>
       <c r="G33" s="207"/>
-      <c r="H33" s="247" t="s">
-        <v>282</v>
-      </c>
-      <c r="I33" s="119"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="248"/>
-      <c r="L33" s="190" t="s">
-        <v>283</v>
-      </c>
-      <c r="M33" s="190" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="41" t="s">
-        <v>82</v>
-      </c>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
+      <c r="P33" s="46"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="26"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="43"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
     </row>
     <row r="34" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="217">
@@ -17838,22 +17861,22 @@
       <c r="E34" s="39"/>
       <c r="F34" s="185"/>
       <c r="G34" s="207"/>
-      <c r="H34" s="248"/>
-      <c r="I34" s="249" t="s">
-        <v>284</v>
-      </c>
-      <c r="J34" s="250"/>
-      <c r="K34" s="250"/>
-      <c r="L34" s="233" t="s">
-        <v>285</v>
-      </c>
-      <c r="M34" s="233" t="s">
+      <c r="H34" s="247" t="s">
+        <v>281</v>
+      </c>
+      <c r="I34" s="119"/>
+      <c r="J34" s="248"/>
+      <c r="K34" s="248"/>
+      <c r="L34" s="190" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="233"/>
-      <c r="O34" s="233"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="190"/>
       <c r="P34" s="41" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="24"/>
       <c r="R34" s="26"/>
@@ -17861,7 +17884,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="43"/>
     </row>
-    <row r="35" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="217">
         <v>2</v>
       </c>
@@ -17872,21 +17895,21 @@
       <c r="F35" s="185"/>
       <c r="G35" s="207"/>
       <c r="H35" s="248"/>
-      <c r="I35" s="232"/>
-      <c r="J35" s="250" t="s">
-        <v>286</v>
-      </c>
+      <c r="I35" s="249" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" s="250"/>
       <c r="K35" s="250"/>
       <c r="L35" s="233" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M35" s="233" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N35" s="233"/>
       <c r="O35" s="233"/>
       <c r="P35" s="41" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="Q35" s="24"/>
       <c r="R35" s="26"/>
@@ -17907,14 +17930,14 @@
       <c r="H36" s="248"/>
       <c r="I36" s="232"/>
       <c r="J36" s="250" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K36" s="250"/>
       <c r="L36" s="233" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M36" s="233" t="s">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="N36" s="233"/>
       <c r="O36" s="233"/>
@@ -17928,17 +17951,37 @@
       <c r="U36" s="43"/>
     </row>
     <row r="37" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="251"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="252"/>
-      <c r="D37" s="252"/>
-      <c r="E37" s="167"/>
-      <c r="I37" s="254"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="170"/>
+      <c r="A37" s="217">
+        <v>2</v>
+      </c>
+      <c r="B37" s="183"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="248"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="250" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" s="250"/>
+      <c r="L37" s="233" t="s">
+        <v>288</v>
+      </c>
+      <c r="M37" s="233" t="s">
+        <v>289</v>
+      </c>
+      <c r="N37" s="233"/>
+      <c r="O37" s="233"/>
+      <c r="P37" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="43"/>
     </row>
     <row r="38" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="251"/>
@@ -18151,8 +18194,8 @@
     <row r="54" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="251"/>
       <c r="B54" s="251"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
+      <c r="C54" s="252"/>
+      <c r="D54" s="252"/>
       <c r="E54" s="167"/>
       <c r="I54" s="254"/>
       <c r="L54" s="170"/>
@@ -18164,8 +18207,8 @@
     <row r="55" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="251"/>
       <c r="B55" s="251"/>
-      <c r="C55" s="252"/>
-      <c r="D55" s="252"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="172"/>
       <c r="E55" s="167"/>
       <c r="I55" s="254"/>
       <c r="L55" s="170"/>
@@ -18476,8 +18519,8 @@
     <row r="79" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="251"/>
       <c r="B79" s="251"/>
-      <c r="C79" s="255"/>
-      <c r="D79" s="255"/>
+      <c r="C79" s="252"/>
+      <c r="D79" s="252"/>
       <c r="E79" s="167"/>
       <c r="I79" s="254"/>
       <c r="L79" s="170"/>
@@ -18541,8 +18584,8 @@
     <row r="84" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="251"/>
       <c r="B84" s="251"/>
-      <c r="C84" s="252"/>
-      <c r="D84" s="252"/>
+      <c r="C84" s="255"/>
+      <c r="D84" s="255"/>
       <c r="E84" s="167"/>
       <c r="I84" s="254"/>
       <c r="L84" s="170"/>
@@ -18645,8 +18688,8 @@
     <row r="92" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="251"/>
       <c r="B92" s="251"/>
-      <c r="C92" s="255"/>
-      <c r="D92" s="255"/>
+      <c r="C92" s="252"/>
+      <c r="D92" s="252"/>
       <c r="E92" s="167"/>
       <c r="I92" s="254"/>
       <c r="L92" s="170"/>
@@ -18710,8 +18753,8 @@
     <row r="97" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="251"/>
       <c r="B97" s="251"/>
-      <c r="C97" s="252"/>
-      <c r="D97" s="252"/>
+      <c r="C97" s="255"/>
+      <c r="D97" s="255"/>
       <c r="E97" s="167"/>
       <c r="I97" s="254"/>
       <c r="L97" s="170"/>
@@ -18736,8 +18779,8 @@
     <row r="99" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="251"/>
       <c r="B99" s="251"/>
-      <c r="C99" s="166"/>
-      <c r="D99" s="166"/>
+      <c r="C99" s="252"/>
+      <c r="D99" s="252"/>
       <c r="E99" s="167"/>
       <c r="I99" s="254"/>
       <c r="L99" s="170"/>
@@ -18749,8 +18792,8 @@
     <row r="100" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="251"/>
       <c r="B100" s="251"/>
-      <c r="C100" s="252"/>
-      <c r="D100" s="252"/>
+      <c r="C100" s="166"/>
+      <c r="D100" s="166"/>
       <c r="E100" s="167"/>
       <c r="I100" s="254"/>
       <c r="L100" s="170"/>
@@ -18800,26 +18843,26 @@
     </row>
     <row r="104" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="251"/>
-      <c r="B104" s="256"/>
+      <c r="B104" s="251"/>
       <c r="C104" s="252"/>
       <c r="D104" s="252"/>
       <c r="E104" s="167"/>
       <c r="I104" s="254"/>
       <c r="L104" s="170"/>
-      <c r="M104" s="257"/>
+      <c r="M104" s="170"/>
       <c r="N104" s="170"/>
       <c r="O104" s="170"/>
       <c r="P104" s="170"/>
     </row>
     <row r="105" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="251"/>
-      <c r="B105" s="251"/>
+      <c r="B105" s="256"/>
       <c r="C105" s="252"/>
       <c r="D105" s="252"/>
       <c r="E105" s="167"/>
       <c r="I105" s="254"/>
       <c r="L105" s="170"/>
-      <c r="M105" s="170"/>
+      <c r="M105" s="257"/>
       <c r="N105" s="170"/>
       <c r="O105" s="170"/>
       <c r="P105" s="170"/>
@@ -18879,8 +18922,8 @@
     <row r="110" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="251"/>
       <c r="B110" s="251"/>
-      <c r="C110" s="166"/>
-      <c r="D110" s="166"/>
+      <c r="C110" s="252"/>
+      <c r="D110" s="252"/>
       <c r="E110" s="167"/>
       <c r="I110" s="254"/>
       <c r="L110" s="170"/>
@@ -18892,8 +18935,8 @@
     <row r="111" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="251"/>
       <c r="B111" s="251"/>
-      <c r="C111" s="252"/>
-      <c r="D111" s="252"/>
+      <c r="C111" s="166"/>
+      <c r="D111" s="166"/>
       <c r="E111" s="167"/>
       <c r="I111" s="254"/>
       <c r="L111" s="170"/>
@@ -18904,7 +18947,7 @@
     </row>
     <row r="112" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="251"/>
-      <c r="B112" s="256"/>
+      <c r="B112" s="251"/>
       <c r="C112" s="252"/>
       <c r="D112" s="252"/>
       <c r="E112" s="167"/>
@@ -18930,7 +18973,7 @@
     </row>
     <row r="114" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="251"/>
-      <c r="B114" s="251"/>
+      <c r="B114" s="256"/>
       <c r="C114" s="252"/>
       <c r="D114" s="252"/>
       <c r="E114" s="167"/>
@@ -19178,8 +19221,8 @@
     <row r="133" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="251"/>
       <c r="B133" s="251"/>
-      <c r="C133" s="172"/>
-      <c r="D133" s="172"/>
+      <c r="C133" s="252"/>
+      <c r="D133" s="252"/>
       <c r="E133" s="167"/>
       <c r="I133" s="254"/>
       <c r="L133" s="170"/>
@@ -19191,8 +19234,8 @@
     <row r="134" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="251"/>
       <c r="B134" s="251"/>
-      <c r="C134" s="252"/>
-      <c r="D134" s="252"/>
+      <c r="C134" s="172"/>
+      <c r="D134" s="172"/>
       <c r="E134" s="167"/>
       <c r="I134" s="254"/>
       <c r="L134" s="170"/>
@@ -19204,8 +19247,8 @@
     <row r="135" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="251"/>
       <c r="B135" s="251"/>
-      <c r="C135" s="255"/>
-      <c r="D135" s="255"/>
+      <c r="C135" s="252"/>
+      <c r="D135" s="252"/>
       <c r="E135" s="167"/>
       <c r="I135" s="254"/>
       <c r="L135" s="170"/>
@@ -19269,8 +19312,8 @@
     <row r="140" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="251"/>
       <c r="B140" s="251"/>
-      <c r="C140" s="252"/>
-      <c r="D140" s="252"/>
+      <c r="C140" s="255"/>
+      <c r="D140" s="255"/>
       <c r="E140" s="167"/>
       <c r="I140" s="254"/>
       <c r="L140" s="170"/>
@@ -19287,9 +19330,9 @@
       <c r="E141" s="167"/>
       <c r="I141" s="254"/>
       <c r="L141" s="170"/>
-      <c r="M141" s="257"/>
-      <c r="N141" s="257"/>
-      <c r="O141" s="257"/>
+      <c r="M141" s="170"/>
+      <c r="N141" s="170"/>
+      <c r="O141" s="170"/>
       <c r="P141" s="170"/>
     </row>
     <row r="142" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -19352,16 +19395,16 @@
       <c r="E146" s="167"/>
       <c r="I146" s="254"/>
       <c r="L146" s="170"/>
-      <c r="M146" s="170"/>
-      <c r="N146" s="170"/>
-      <c r="O146" s="170"/>
+      <c r="M146" s="257"/>
+      <c r="N146" s="257"/>
+      <c r="O146" s="257"/>
       <c r="P146" s="170"/>
     </row>
     <row r="147" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="251"/>
       <c r="B147" s="251"/>
-      <c r="C147" s="172"/>
-      <c r="D147" s="172"/>
+      <c r="C147" s="252"/>
+      <c r="D147" s="252"/>
       <c r="E147" s="167"/>
       <c r="I147" s="254"/>
       <c r="L147" s="170"/>
@@ -19373,6 +19416,8 @@
     <row r="148" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="251"/>
       <c r="B148" s="251"/>
+      <c r="C148" s="172"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="167"/>
       <c r="I148" s="254"/>
       <c r="L148" s="170"/>
@@ -19384,8 +19429,6 @@
     <row r="149" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="251"/>
       <c r="B149" s="251"/>
-      <c r="C149" s="255"/>
-      <c r="D149" s="255"/>
       <c r="E149" s="167"/>
       <c r="I149" s="254"/>
       <c r="L149" s="170"/>
@@ -19449,8 +19492,8 @@
     <row r="154" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="251"/>
       <c r="B154" s="251"/>
-      <c r="C154" s="167"/>
-      <c r="D154" s="167"/>
+      <c r="C154" s="255"/>
+      <c r="D154" s="255"/>
       <c r="E154" s="167"/>
       <c r="I154" s="254"/>
       <c r="L154" s="170"/>
@@ -19475,6 +19518,8 @@
     <row r="156" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="251"/>
       <c r="B156" s="251"/>
+      <c r="C156" s="167"/>
+      <c r="D156" s="167"/>
       <c r="E156" s="167"/>
       <c r="I156" s="254"/>
       <c r="L156" s="170"/>
@@ -19541,8 +19586,6 @@
     <row r="162" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="251"/>
       <c r="B162" s="251"/>
-      <c r="C162" s="252"/>
-      <c r="D162" s="252"/>
       <c r="E162" s="167"/>
       <c r="I162" s="254"/>
       <c r="L162" s="170"/>
@@ -19554,6 +19597,8 @@
     <row r="163" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="251"/>
       <c r="B163" s="251"/>
+      <c r="C163" s="252"/>
+      <c r="D163" s="252"/>
       <c r="E163" s="167"/>
       <c r="I163" s="254"/>
       <c r="L163" s="170"/>
@@ -19697,8 +19742,6 @@
     <row r="176" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="251"/>
       <c r="B176" s="251"/>
-      <c r="C176" s="252"/>
-      <c r="D176" s="252"/>
       <c r="E176" s="167"/>
       <c r="I176" s="254"/>
       <c r="L176" s="170"/>
@@ -19710,6 +19753,8 @@
     <row r="177" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="251"/>
       <c r="B177" s="251"/>
+      <c r="C177" s="252"/>
+      <c r="D177" s="252"/>
       <c r="E177" s="167"/>
       <c r="I177" s="254"/>
       <c r="L177" s="170"/>
@@ -19721,8 +19766,6 @@
     <row r="178" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="251"/>
       <c r="B178" s="251"/>
-      <c r="C178" s="255"/>
-      <c r="D178" s="255"/>
       <c r="E178" s="167"/>
       <c r="I178" s="254"/>
       <c r="L178" s="170"/>
@@ -19786,6 +19829,8 @@
     <row r="183" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="251"/>
       <c r="B183" s="251"/>
+      <c r="C183" s="255"/>
+      <c r="D183" s="255"/>
       <c r="E183" s="167"/>
       <c r="I183" s="254"/>
       <c r="L183" s="170"/>
@@ -19830,8 +19875,6 @@
     <row r="187" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="251"/>
       <c r="B187" s="251"/>
-      <c r="C187" s="252"/>
-      <c r="D187" s="252"/>
       <c r="E187" s="167"/>
       <c r="I187" s="254"/>
       <c r="L187" s="170"/>
@@ -19843,6 +19886,8 @@
     <row r="188" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="251"/>
       <c r="B188" s="251"/>
+      <c r="C188" s="252"/>
+      <c r="D188" s="252"/>
       <c r="E188" s="167"/>
       <c r="I188" s="254"/>
       <c r="L188" s="170"/>
@@ -20107,8 +20152,6 @@
     <row r="212" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="251"/>
       <c r="B212" s="251"/>
-      <c r="C212" s="252"/>
-      <c r="D212" s="252"/>
       <c r="E212" s="167"/>
       <c r="I212" s="254"/>
       <c r="L212" s="170"/>
@@ -20120,6 +20163,8 @@
     <row r="213" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="251"/>
       <c r="B213" s="251"/>
+      <c r="C213" s="252"/>
+      <c r="D213" s="252"/>
       <c r="E213" s="167"/>
       <c r="I213" s="254"/>
       <c r="L213" s="170"/>
@@ -20131,8 +20176,6 @@
     <row r="214" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="251"/>
       <c r="B214" s="251"/>
-      <c r="C214" s="255"/>
-      <c r="D214" s="255"/>
       <c r="E214" s="167"/>
       <c r="I214" s="254"/>
       <c r="L214" s="170"/>
@@ -20196,6 +20239,8 @@
     <row r="219" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="251"/>
       <c r="B219" s="251"/>
+      <c r="C219" s="255"/>
+      <c r="D219" s="255"/>
       <c r="E219" s="167"/>
       <c r="I219" s="254"/>
       <c r="L219" s="170"/>
@@ -20438,8 +20483,6 @@
     <row r="241" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="251"/>
       <c r="B241" s="251"/>
-      <c r="C241" s="252"/>
-      <c r="D241" s="252"/>
       <c r="E241" s="167"/>
       <c r="I241" s="254"/>
       <c r="L241" s="170"/>
@@ -20451,6 +20494,8 @@
     <row r="242" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="251"/>
       <c r="B242" s="251"/>
+      <c r="C242" s="252"/>
+      <c r="D242" s="252"/>
       <c r="E242" s="167"/>
       <c r="I242" s="254"/>
       <c r="L242" s="170"/>
@@ -20476,9 +20521,9 @@
       <c r="E244" s="167"/>
       <c r="I244" s="254"/>
       <c r="L244" s="170"/>
-      <c r="M244" s="258"/>
-      <c r="N244" s="258"/>
-      <c r="O244" s="258"/>
+      <c r="M244" s="170"/>
+      <c r="N244" s="170"/>
+      <c r="O244" s="170"/>
       <c r="P244" s="170"/>
     </row>
     <row r="245" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -20531,9 +20576,9 @@
       <c r="E249" s="167"/>
       <c r="I249" s="254"/>
       <c r="L249" s="170"/>
-      <c r="M249" s="170"/>
-      <c r="N249" s="170"/>
-      <c r="O249" s="170"/>
+      <c r="M249" s="258"/>
+      <c r="N249" s="258"/>
+      <c r="O249" s="258"/>
       <c r="P249" s="170"/>
     </row>
     <row r="250" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -20542,14 +20587,14 @@
       <c r="E250" s="167"/>
       <c r="I250" s="254"/>
       <c r="L250" s="170"/>
-      <c r="M250" s="258"/>
-      <c r="N250" s="258"/>
-      <c r="O250" s="258"/>
+      <c r="M250" s="170"/>
+      <c r="N250" s="170"/>
+      <c r="O250" s="170"/>
       <c r="P250" s="170"/>
     </row>
     <row r="251" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="251"/>
-      <c r="B251" s="259"/>
+      <c r="B251" s="251"/>
       <c r="E251" s="167"/>
       <c r="I251" s="254"/>
       <c r="L251" s="170"/>
@@ -20586,9 +20631,9 @@
       <c r="E254" s="167"/>
       <c r="I254" s="254"/>
       <c r="L254" s="170"/>
-      <c r="M254" s="170"/>
-      <c r="N254" s="170"/>
-      <c r="O254" s="170"/>
+      <c r="M254" s="258"/>
+      <c r="N254" s="258"/>
+      <c r="O254" s="258"/>
       <c r="P254" s="170"/>
     </row>
     <row r="255" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -20616,8 +20661,6 @@
     <row r="257" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="251"/>
       <c r="B257" s="259"/>
-      <c r="C257" s="252"/>
-      <c r="D257" s="252"/>
       <c r="E257" s="167"/>
       <c r="I257" s="254"/>
       <c r="L257" s="170"/>
@@ -20629,6 +20672,8 @@
     <row r="258" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="251"/>
       <c r="B258" s="259"/>
+      <c r="C258" s="252"/>
+      <c r="D258" s="252"/>
       <c r="E258" s="167"/>
       <c r="I258" s="254"/>
       <c r="L258" s="170"/>
@@ -20640,8 +20685,6 @@
     <row r="259" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="251"/>
       <c r="B259" s="259"/>
-      <c r="C259" s="255"/>
-      <c r="D259" s="255"/>
       <c r="E259" s="167"/>
       <c r="I259" s="254"/>
       <c r="L259" s="170"/>
@@ -20705,6 +20748,8 @@
     <row r="264" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="251"/>
       <c r="B264" s="259"/>
+      <c r="C264" s="255"/>
+      <c r="D264" s="255"/>
       <c r="E264" s="167"/>
       <c r="I264" s="254"/>
       <c r="L264" s="170"/>
@@ -20837,8 +20882,6 @@
     <row r="276" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="251"/>
       <c r="B276" s="259"/>
-      <c r="C276" s="252"/>
-      <c r="D276" s="252"/>
       <c r="E276" s="167"/>
       <c r="I276" s="254"/>
       <c r="L276" s="170"/>
@@ -20850,6 +20893,8 @@
     <row r="277" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="251"/>
       <c r="B277" s="259"/>
+      <c r="C277" s="252"/>
+      <c r="D277" s="252"/>
       <c r="E277" s="167"/>
       <c r="I277" s="254"/>
       <c r="L277" s="170"/>
@@ -20861,8 +20906,6 @@
     <row r="278" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="251"/>
       <c r="B278" s="259"/>
-      <c r="C278" s="260"/>
-      <c r="D278" s="260"/>
       <c r="E278" s="167"/>
       <c r="I278" s="254"/>
       <c r="L278" s="170"/>
@@ -20913,8 +20956,8 @@
     <row r="282" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="251"/>
       <c r="B282" s="259"/>
-      <c r="C282" s="252"/>
-      <c r="D282" s="252"/>
+      <c r="C282" s="260"/>
+      <c r="D282" s="260"/>
       <c r="E282" s="167"/>
       <c r="I282" s="254"/>
       <c r="L282" s="170"/>
@@ -20926,6 +20969,8 @@
     <row r="283" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="251"/>
       <c r="B283" s="259"/>
+      <c r="C283" s="252"/>
+      <c r="D283" s="252"/>
       <c r="E283" s="167"/>
       <c r="I283" s="254"/>
       <c r="L283" s="170"/>
@@ -20937,8 +20982,6 @@
     <row r="284" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="251"/>
       <c r="B284" s="259"/>
-      <c r="C284" s="255"/>
-      <c r="D284" s="255"/>
       <c r="E284" s="167"/>
       <c r="I284" s="254"/>
       <c r="L284" s="170"/>
@@ -21002,6 +21045,8 @@
     <row r="289" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="251"/>
       <c r="B289" s="259"/>
+      <c r="C289" s="255"/>
+      <c r="D289" s="255"/>
       <c r="E289" s="167"/>
       <c r="I289" s="254"/>
       <c r="L289" s="170"/>
@@ -21189,8 +21234,6 @@
     <row r="306" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="251"/>
       <c r="B306" s="259"/>
-      <c r="C306" s="252"/>
-      <c r="D306" s="252"/>
       <c r="E306" s="167"/>
       <c r="I306" s="254"/>
       <c r="L306" s="170"/>
@@ -21202,6 +21245,8 @@
     <row r="307" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="251"/>
       <c r="B307" s="259"/>
+      <c r="C307" s="252"/>
+      <c r="D307" s="252"/>
       <c r="E307" s="167"/>
       <c r="I307" s="254"/>
       <c r="L307" s="170"/>
@@ -21213,8 +21258,6 @@
     <row r="308" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="251"/>
       <c r="B308" s="259"/>
-      <c r="C308" s="260"/>
-      <c r="D308" s="260"/>
       <c r="E308" s="167"/>
       <c r="I308" s="254"/>
       <c r="L308" s="170"/>
@@ -21265,8 +21308,8 @@
     <row r="312" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="251"/>
       <c r="B312" s="259"/>
-      <c r="C312" s="252"/>
-      <c r="D312" s="252"/>
+      <c r="C312" s="260"/>
+      <c r="D312" s="260"/>
       <c r="E312" s="167"/>
       <c r="I312" s="254"/>
       <c r="L312" s="170"/>
@@ -21278,6 +21321,8 @@
     <row r="313" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="251"/>
       <c r="B313" s="259"/>
+      <c r="C313" s="252"/>
+      <c r="D313" s="252"/>
       <c r="E313" s="167"/>
       <c r="I313" s="254"/>
       <c r="L313" s="170"/>
@@ -21289,8 +21334,6 @@
     <row r="314" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="251"/>
       <c r="B314" s="259"/>
-      <c r="C314" s="255"/>
-      <c r="D314" s="255"/>
       <c r="E314" s="167"/>
       <c r="I314" s="254"/>
       <c r="L314" s="170"/>
@@ -21354,6 +21397,8 @@
     <row r="319" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="251"/>
       <c r="B319" s="259"/>
+      <c r="C319" s="255"/>
+      <c r="D319" s="255"/>
       <c r="E319" s="167"/>
       <c r="I319" s="254"/>
       <c r="L319" s="170"/>
@@ -21431,8 +21476,6 @@
     <row r="326" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="251"/>
       <c r="B326" s="259"/>
-      <c r="C326" s="252"/>
-      <c r="D326" s="252"/>
       <c r="E326" s="167"/>
       <c r="I326" s="254"/>
       <c r="L326" s="170"/>
@@ -21444,6 +21487,8 @@
     <row r="327" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="251"/>
       <c r="B327" s="259"/>
+      <c r="C327" s="252"/>
+      <c r="D327" s="252"/>
       <c r="E327" s="167"/>
       <c r="I327" s="254"/>
       <c r="L327" s="170"/>
@@ -21587,8 +21632,6 @@
     <row r="340" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="251"/>
       <c r="B340" s="259"/>
-      <c r="C340" s="260"/>
-      <c r="D340" s="260"/>
       <c r="E340" s="167"/>
       <c r="I340" s="254"/>
       <c r="L340" s="170"/>
@@ -21652,6 +21695,8 @@
     <row r="345" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="251"/>
       <c r="B345" s="259"/>
+      <c r="C345" s="260"/>
+      <c r="D345" s="260"/>
       <c r="E345" s="167"/>
       <c r="I345" s="254"/>
       <c r="L345" s="170"/>
@@ -22180,8 +22225,6 @@
     <row r="393" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="251"/>
       <c r="B393" s="259"/>
-      <c r="C393" s="168"/>
-      <c r="D393" s="168"/>
       <c r="E393" s="167"/>
       <c r="I393" s="254"/>
       <c r="L393" s="170"/>
@@ -26638,9 +26681,9 @@
     </row>
     <row r="736" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="251"/>
-      <c r="B736" s="251"/>
-      <c r="C736" s="170"/>
-      <c r="D736" s="170"/>
+      <c r="B736" s="259"/>
+      <c r="C736" s="168"/>
+      <c r="D736" s="168"/>
       <c r="E736" s="167"/>
       <c r="I736" s="254"/>
       <c r="L736" s="170"/>
@@ -28176,9 +28219,6 @@
       <c r="C854" s="170"/>
       <c r="D854" s="170"/>
       <c r="E854" s="167"/>
-      <c r="F854" s="253" t="s">
-        <v>291</v>
-      </c>
       <c r="I854" s="254"/>
       <c r="L854" s="170"/>
       <c r="M854" s="170"/>
@@ -28186,9 +28226,25 @@
       <c r="O854" s="170"/>
       <c r="P854" s="170"/>
     </row>
+    <row r="855" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A855" s="251"/>
+      <c r="B855" s="251"/>
+      <c r="C855" s="170"/>
+      <c r="D855" s="170"/>
+      <c r="E855" s="167"/>
+      <c r="F855" s="253" t="s">
+        <v>290</v>
+      </c>
+      <c r="I855" s="254"/>
+      <c r="L855" s="170"/>
+      <c r="M855" s="170"/>
+      <c r="N855" s="170"/>
+      <c r="O855" s="170"/>
+      <c r="P855" s="170"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S1" r:id="rId1" xr:uid="{7880329F-4903-9048-9963-CE90125A38DE}"/>

--- a/Model/in progress/v02-10/Components/Detector/NBO_MicroscopyMetadataSpecifications_DETECTOR_v02-10.xlsx
+++ b/Model/in progress/v02-10/Components/Detector/NBO_MicroscopyMetadataSpecifications_DETECTOR_v02-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/NBOMicroscopyMetadataSpecs/Model/in progress/v02-10/Components/Detector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66BB9FF-D242-9749-B6ED-7FFD5BAC95CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DBE95-02A7-AD4F-8534-B063F79238A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="900" windowWidth="26200" windowHeight="16320" activeTab="1" xr2:uid="{FF8EC58E-AC57-9D4D-AF0B-ECFDD46E717E}"/>
   </bookViews>
@@ -101,6 +101,7 @@
   <authors>
     <author/>
     <author>Strambio, Caterina</author>
+    <author>tc={3A71890E-D6C2-8C47-81E7-7957FF532473}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1ED8C378-A4D3-6944-AE89-5365E66833F1}">
@@ -140,12 +141,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="W1" authorId="2" shapeId="0" xr:uid="{3A71890E-D6C2-8C47-81E7-7957FF532473}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use this column to provide feedback.
+Enter your name, lastname and email in the column header.
+Enter your comments/suggestions in the cell that corresponds to the row of the element/field you want to change.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="296">
   <si>
     <t>Tier</t>
   </si>
@@ -1045,7 +1056,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1286,6 +1297,12 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3218,6 +3235,16 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W1" dT="2021-10-06T22:44:42.32" personId="{F8F8F373-FD67-9244-8810-9C85374FB326}" id="{3A71890E-D6C2-8C47-81E7-7957FF532473}">
+    <text>Use this column to provide feedback.
+Enter your name, lastname and email in the column header.
+Enter your comments/suggestions in the cell that corresponds to the row of the element/field you want to change.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93938140-A339-004E-8C0E-E2A9D19EA897}">
   <sheetPr>
@@ -3227,7 +3254,7 @@
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:XFD79"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16738,11 +16765,11 @@
   <sheetPr>
     <tabColor rgb="FFBFBFBF"/>
   </sheetPr>
-  <dimension ref="A1:U855"/>
+  <dimension ref="A1:W855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16760,7 +16787,9 @@
     <col min="16" max="16" width="12.33203125" style="253" customWidth="1"/>
     <col min="17" max="18" width="3.6640625" style="16" customWidth="1"/>
     <col min="19" max="21" width="12.33203125" style="16" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" style="16" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="16" customWidth="1"/>
+    <col min="23" max="23" width="24.1640625" style="263" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="16" customWidth="1"/>
     <col min="25" max="25" width="3.33203125" style="16" customWidth="1"/>
     <col min="26" max="28" width="10.83203125" style="16" customWidth="1"/>
     <col min="29" max="33" width="10.5" style="16" customWidth="1"/>
@@ -16768,7 +16797,7 @@
     <col min="47" max="16384" width="11.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="181" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="181" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16810,8 +16839,11 @@
       <c r="U1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="262" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="187"/>
       <c r="B2" s="187"/>
       <c r="C2" s="12"/>
@@ -16834,7 +16866,7 @@
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="29" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="182">
         <v>1</v>
       </c>
@@ -16870,8 +16902,9 @@
       <c r="U3" s="43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="263"/>
+    </row>
+    <row r="4" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="187"/>
       <c r="B4" s="187"/>
       <c r="C4" s="12"/>
@@ -16894,7 +16927,7 @@
       <c r="T4" s="44"/>
       <c r="U4" s="43"/>
     </row>
-    <row r="5" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="182">
         <v>1</v>
       </c>
@@ -16933,7 +16966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="187"/>
       <c r="B6" s="187"/>
       <c r="C6" s="12"/>
@@ -16956,7 +16989,7 @@
       <c r="T6" s="44"/>
       <c r="U6" s="43"/>
     </row>
-    <row r="7" spans="1:21" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="201">
         <v>1</v>
       </c>
@@ -16991,7 +17024,7 @@
       <c r="T7" s="44"/>
       <c r="U7" s="43"/>
     </row>
-    <row r="8" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="187"/>
       <c r="B8" s="187"/>
       <c r="C8" s="12"/>
@@ -17014,7 +17047,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="43"/>
     </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="182">
         <v>1</v>
       </c>
@@ -17050,8 +17083,11 @@
       <c r="U9" s="43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W9" s="263" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="187"/>
       <c r="B10" s="187"/>
       <c r="C10" s="12"/>
@@ -17074,7 +17110,7 @@
       <c r="T10" s="44"/>
       <c r="U10" s="43"/>
     </row>
-    <row r="11" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="182">
         <v>1</v>
       </c>
@@ -17115,7 +17151,7 @@
       </c>
       <c r="U11" s="43"/>
     </row>
-    <row r="12" spans="1:21" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="182"/>
       <c r="B12" s="183"/>
       <c r="C12" s="12"/>
@@ -17142,7 +17178,7 @@
       <c r="T12" s="86"/>
       <c r="U12" s="85"/>
     </row>
-    <row r="13" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="182">
         <v>1</v>
       </c>
@@ -17181,7 +17217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="182">
         <v>1</v>
       </c>
@@ -17220,7 +17256,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182">
         <v>1</v>
       </c>
@@ -17259,7 +17295,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="182">
         <v>1</v>
       </c>
